--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Documents\GitHub\CarrPerformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A357F6-48A3-4FD2-8178-2FD94672AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF073CD9-D6B1-4F53-85AB-C5FFFE20E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFE66E-EF83-4EBE-A660-7D43637E72FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Fecha</t>
   </si>
@@ -84,6 +84,72 @@
   </si>
   <si>
     <t>1/07/2025</t>
+  </si>
+  <si>
+    <t>2/07/2025</t>
+  </si>
+  <si>
+    <t>3/07/2025</t>
+  </si>
+  <si>
+    <t>4/07/2025</t>
+  </si>
+  <si>
+    <t>5/07/2025</t>
+  </si>
+  <si>
+    <t>6/07/2025</t>
+  </si>
+  <si>
+    <t>7/07/2025</t>
+  </si>
+  <si>
+    <t>8/07/2025</t>
+  </si>
+  <si>
+    <t>9/07/2025</t>
+  </si>
+  <si>
+    <t>10/07/2025</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>12/07/2025</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>19/07/2025</t>
+  </si>
+  <si>
+    <t>20/07/2025</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
   </si>
 </sst>
 </file>
@@ -133,12 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414F2AB1-A964-4797-AC30-36014DE3ACB7}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +594,7 @@
         <v>70000</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D35" si="0">B3-C3</f>
         <v>110000</v>
       </c>
     </row>
@@ -592,6 +659,7 @@
         <v>-76000</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -680,23 +748,614 @@
         <v>52000</v>
       </c>
       <c r="C13" s="3">
-        <f>40000+150000</f>
-        <v>190000</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
         <f>B13-C13</f>
-        <v>-138000</v>
+        <v>12000</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>140000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>160000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>140000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>130000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C29">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>125000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C32">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>180000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>115000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>160000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
